--- a/Data/Node_List.xlsx
+++ b/Data/Node_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoller/Box Sync/ANCR/WAMV-Networks/multilayer_design_network_tool/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C696B3-A4B5-A347-9773-9E4870F12C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39485B-0F4D-3542-A00A-4E84C704657F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4740" windowWidth="34760" windowHeight="21740" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
   <si>
     <t>Function</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
     <t>Physical</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Hydrophones</t>
   </si>
   <si>
@@ -360,7 +354,64 @@
     <t xml:space="preserve">Light Signal  </t>
   </si>
   <si>
-    <t>Height [z]</t>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Action Model</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Moving Laser Scan</t>
+  </si>
+  <si>
+    <t>Particle Filter</t>
+  </si>
+  <si>
+    <t>Sensor Model</t>
+  </si>
+  <si>
+    <t>SLAM Main</t>
+  </si>
+  <si>
+    <t>SLAM</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>LiDAR Driver</t>
+  </si>
+  <si>
+    <t>Time Sync</t>
+  </si>
+  <si>
+    <t>Wifi Driver</t>
+  </si>
+  <si>
+    <t>Path Planning</t>
+  </si>
+  <si>
+    <t>Exploration Task</t>
+  </si>
+  <si>
+    <t>Frontiers</t>
+  </si>
+  <si>
+    <t>Grid Generator</t>
+  </si>
+  <si>
+    <t>Motion Planner</t>
+  </si>
+  <si>
+    <t>Obstacle Distance Grid</t>
+  </si>
+  <si>
+    <t>Height[z]</t>
+  </si>
+  <si>
+    <t>StartDate</t>
   </si>
 </sst>
 </file>
@@ -716,39 +767,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440458A-97D1-3A40-AB97-400D38B3B3DC}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -758,14 +805,14 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>43252</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -775,14 +822,14 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>43331</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -792,14 +839,14 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>43151</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -809,14 +856,14 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>43392</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -826,14 +873,14 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <v>43423</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -843,14 +890,14 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <v>43423</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -860,14 +907,14 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
         <v>43270</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -877,14 +924,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="D9" s="1">
         <v>43270</v>
       </c>
-      <c r="F9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -894,14 +941,14 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
         <v>43270</v>
       </c>
-      <c r="F10">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -911,14 +958,14 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
         <v>43239</v>
       </c>
-      <c r="F11">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -928,14 +975,14 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1">
         <v>43239</v>
       </c>
-      <c r="F12">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -945,15 +992,15 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1">
         <v>43300</v>
       </c>
-      <c r="F13">
-        <v>7.5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -963,15 +1010,15 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="1">
         <v>43239</v>
       </c>
-      <c r="F14">
-        <v>7.5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -981,15 +1028,15 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1">
+      <c r="D15" s="1">
         <v>43239</v>
       </c>
-      <c r="F15">
-        <v>7.5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>7.5</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -999,15 +1046,15 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1">
         <v>43270</v>
       </c>
-      <c r="F16">
-        <v>7.5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>7.5</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1017,15 +1064,15 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
         <v>43270</v>
       </c>
-      <c r="F17">
-        <v>7.5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>7.5</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1035,15 +1082,15 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
         <v>43239</v>
       </c>
-      <c r="F18">
-        <v>7.5</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1053,15 +1100,15 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
         <v>43239</v>
       </c>
-      <c r="F19">
-        <v>7.5</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1071,15 +1118,15 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="1">
+      <c r="D20" s="1">
         <v>43331</v>
       </c>
-      <c r="F20">
-        <v>7.5</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>7.5</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1089,15 +1136,15 @@
       <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="1">
+      <c r="D21" s="1">
         <v>43392</v>
       </c>
-      <c r="F21">
-        <v>7.5</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>7.5</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1107,15 +1154,15 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="1">
+      <c r="D22" s="1">
         <v>43331</v>
       </c>
-      <c r="F22">
-        <v>7.5</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>7.5</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1125,15 +1172,15 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="1">
+      <c r="D23" s="1">
         <v>43331</v>
       </c>
-      <c r="F23">
-        <v>7.5</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>7.5</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1143,15 +1190,15 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D24" s="1">
         <v>43331</v>
       </c>
-      <c r="F24">
-        <v>7.5</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>7.5</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1161,15 +1208,15 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="1">
+      <c r="D25" s="1">
         <v>43300</v>
       </c>
-      <c r="F25">
-        <v>7.5</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>7.5</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1179,15 +1226,15 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D26" s="1">
         <v>43300</v>
       </c>
-      <c r="F26">
-        <v>7.5</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>7.5</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1197,15 +1244,15 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1">
+      <c r="D27" s="1">
         <v>43300</v>
       </c>
-      <c r="F27">
-        <v>7.5</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>7.5</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1215,15 +1262,15 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="1">
+      <c r="D28" s="1">
         <v>43300</v>
       </c>
-      <c r="F28">
-        <v>7.5</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>7.5</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1233,15 +1280,15 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="1">
+      <c r="D29" s="1">
         <v>43392</v>
       </c>
-      <c r="F29">
-        <v>7.5</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>7.5</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1251,15 +1298,15 @@
       <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="1">
+      <c r="D30" s="1">
         <v>43423</v>
       </c>
-      <c r="F30">
-        <v>7.5</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>7.5</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1269,15 +1316,15 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="1">
+      <c r="D31" s="1">
         <v>43362</v>
       </c>
-      <c r="F31">
-        <v>7.5</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>7.5</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1287,15 +1334,15 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="1">
+      <c r="D32" s="1">
         <v>43331</v>
       </c>
-      <c r="F32">
-        <v>7.5</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>7.5</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1305,15 +1352,15 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="1">
+      <c r="D33" s="1">
         <v>43392</v>
       </c>
-      <c r="F33">
-        <v>7.5</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>7.5</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1323,15 +1370,15 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="1">
+      <c r="D34" s="1">
         <v>43392</v>
       </c>
-      <c r="F34">
-        <v>7.5</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>7.5</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1341,15 +1388,15 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="1">
+      <c r="D35" s="1">
         <v>43300</v>
       </c>
-      <c r="F35">
-        <v>7.5</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>7.5</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1359,15 +1406,15 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="1">
+      <c r="D36" s="1">
         <v>43423</v>
       </c>
-      <c r="F36">
-        <v>7.5</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>7.5</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1377,15 +1424,15 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="1">
+      <c r="D37" s="1">
         <v>43423</v>
       </c>
-      <c r="F37">
-        <v>7.5</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>7.5</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1395,15 +1442,15 @@
       <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="1">
+      <c r="D38" s="1">
         <v>43423</v>
       </c>
-      <c r="F38">
-        <v>7.5</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1413,15 +1460,15 @@
       <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="1">
+      <c r="D39" s="1">
         <v>43362</v>
       </c>
-      <c r="F39">
-        <v>7.5</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>7.5</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1431,15 +1478,15 @@
       <c r="C40" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="1">
+      <c r="D40" s="1">
         <v>43392</v>
       </c>
-      <c r="F40">
-        <v>7.5</v>
-      </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>7.5</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1449,15 +1496,15 @@
       <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="1">
+      <c r="D41" s="1">
         <v>43270</v>
       </c>
-      <c r="F41">
-        <v>7.5</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>7.5</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1467,15 +1514,15 @@
       <c r="C42" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="1">
+      <c r="D42" s="1">
         <v>43270</v>
       </c>
-      <c r="F42">
-        <v>7.5</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>7.5</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1485,15 +1532,15 @@
       <c r="C43" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="1">
+      <c r="D43" s="1">
         <v>43270</v>
       </c>
-      <c r="F43">
-        <v>7.5</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>7.5</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1503,15 +1550,15 @@
       <c r="C44" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="1">
+      <c r="D44" s="1">
         <v>43270</v>
       </c>
-      <c r="F44">
-        <v>7.5</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>7.5</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1521,915 +1568,915 @@
       <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="1">
+      <c r="D45" s="1">
         <v>43270</v>
       </c>
-      <c r="F45">
-        <v>7.5</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>7.5</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" s="1">
+        <v>43191</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="1">
+      <c r="D47" s="1">
         <v>43191</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="1">
-        <v>43191</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="1">
+        <v>49</v>
+      </c>
+      <c r="D48" s="1">
         <v>43221</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="1">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1">
         <v>43435</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" s="1">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1">
         <v>43221</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="1">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1">
         <v>43435</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="1">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1">
         <v>43252</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="1">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1">
         <v>43252</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="1">
+        <v>55</v>
+      </c>
+      <c r="D54" s="1">
         <v>43344</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="1">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1">
         <v>43344</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="1">
+        <v>57</v>
+      </c>
+      <c r="D56" s="1">
         <v>43252</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="1">
+        <v>58</v>
+      </c>
+      <c r="D57" s="1">
         <v>43252</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="1">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1">
         <v>43282</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="1">
+        <v>60</v>
+      </c>
+      <c r="D59" s="1">
         <v>43282</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="1">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1">
         <v>43282</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="1">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1">
         <v>43282</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="1">
+        <v>63</v>
+      </c>
+      <c r="D62" s="1">
         <v>43282</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="1">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1">
         <v>43282</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" s="1">
+        <v>65</v>
+      </c>
+      <c r="D64" s="1">
         <v>43344</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="1">
+        <v>66</v>
+      </c>
+      <c r="D65" s="1">
         <v>43252</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="1">
+        <v>67</v>
+      </c>
+      <c r="D66" s="1">
         <v>43252</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="1">
+        <v>68</v>
+      </c>
+      <c r="D67" s="1">
         <v>43252</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="1">
+        <v>69</v>
+      </c>
+      <c r="D68" s="1">
         <v>43252</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
-      </c>
-      <c r="E69" s="1">
+        <v>70</v>
+      </c>
+      <c r="D69" s="1">
         <v>43252</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70" s="1">
+        <v>71</v>
+      </c>
+      <c r="D70" s="1">
         <v>43282</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="1">
+        <v>72</v>
+      </c>
+      <c r="D71" s="1">
         <v>43282</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="1">
+        <v>73</v>
+      </c>
+      <c r="D72" s="1">
         <v>43221</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
-      </c>
-      <c r="E73" s="1">
+        <v>74</v>
+      </c>
+      <c r="D73" s="1">
         <v>43221</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E74" s="1">
+        <v>75</v>
+      </c>
+      <c r="D74" s="1">
         <v>43221</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="1">
+        <v>77</v>
+      </c>
+      <c r="D75" s="1">
         <v>43221</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
-      </c>
-      <c r="E76" s="1">
+        <v>76</v>
+      </c>
+      <c r="D76" s="1">
         <v>43221</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="E77" s="1">
+        <v>78</v>
+      </c>
+      <c r="D77" s="1">
         <v>43221</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="1">
+        <v>82</v>
+      </c>
+      <c r="D78" s="1">
         <v>43405</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="1">
+        <v>83</v>
+      </c>
+      <c r="D79" s="1">
         <v>43209</v>
       </c>
-      <c r="F79">
+      <c r="E79">
         <v>2.5</v>
       </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
-      </c>
-      <c r="E80" s="1">
+        <v>84</v>
+      </c>
+      <c r="D80" s="1">
         <v>43300</v>
       </c>
-      <c r="F80">
+      <c r="E80">
         <v>2.5</v>
       </c>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="1">
+        <v>85</v>
+      </c>
+      <c r="D81" s="1">
         <v>43300</v>
       </c>
-      <c r="F81">
+      <c r="E81">
         <v>2.5</v>
       </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="1">
+        <v>86</v>
+      </c>
+      <c r="D82" s="1">
         <v>43270</v>
       </c>
-      <c r="F82">
+      <c r="E82">
         <v>2.5</v>
       </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C83" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="1">
+      <c r="D83" s="1">
         <v>43300</v>
       </c>
-      <c r="F83">
+      <c r="E83">
         <v>2.5</v>
       </c>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="1">
+        <v>87</v>
+      </c>
+      <c r="D84" s="1">
         <v>43362</v>
       </c>
-      <c r="F84">
+      <c r="E84">
         <v>2.5</v>
       </c>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="1">
+        <v>88</v>
+      </c>
+      <c r="D85" s="1">
         <v>43300</v>
       </c>
-      <c r="F85">
+      <c r="E85">
         <v>2.5</v>
       </c>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="1">
+        <v>89</v>
+      </c>
+      <c r="D86" s="1">
         <v>43331</v>
       </c>
-      <c r="F86">
+      <c r="E86">
         <v>2.5</v>
       </c>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" s="1">
+        <v>90</v>
+      </c>
+      <c r="D87" s="1">
         <v>43331</v>
       </c>
-      <c r="F87">
+      <c r="E87">
         <v>2.5</v>
       </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="1">
+      <c r="D88" s="1">
         <v>43300</v>
       </c>
-      <c r="F88">
+      <c r="E88">
         <v>2.5</v>
       </c>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="1">
+      <c r="D89" s="1">
         <v>43362</v>
       </c>
-      <c r="F89">
+      <c r="E89">
         <v>2.5</v>
       </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" s="1">
+        <v>91</v>
+      </c>
+      <c r="D90" s="1">
         <v>43270</v>
       </c>
-      <c r="F90">
+      <c r="E90">
         <v>2.5</v>
       </c>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
-      </c>
-      <c r="E91" s="1">
+        <v>92</v>
+      </c>
+      <c r="D91" s="1">
         <v>43300</v>
       </c>
-      <c r="F91">
+      <c r="E91">
         <v>2.5</v>
       </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" s="1">
+        <v>93</v>
+      </c>
+      <c r="D92" s="1">
         <v>43300</v>
       </c>
-      <c r="F92">
+      <c r="E92">
         <v>2.5</v>
       </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
-      </c>
-      <c r="E93" s="1">
+        <v>94</v>
+      </c>
+      <c r="D93" s="1">
         <v>43239</v>
       </c>
-      <c r="F93">
+      <c r="E93">
         <v>2.5</v>
       </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" s="1">
+        <v>95</v>
+      </c>
+      <c r="D94" s="1">
         <v>43239</v>
       </c>
-      <c r="F94">
+      <c r="E94">
         <v>2.5</v>
       </c>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="1">
+        <v>96</v>
+      </c>
+      <c r="D95" s="1">
         <v>43423</v>
       </c>
-      <c r="F95">
+      <c r="E95">
         <v>2.5</v>
       </c>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2437,141 +2484,393 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
-      </c>
-      <c r="E96" s="1">
+        <v>98</v>
+      </c>
+      <c r="D96" s="1">
         <v>43435</v>
       </c>
-      <c r="F96">
+      <c r="E96">
         <v>10</v>
       </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" s="1">
+        <v>99</v>
+      </c>
+      <c r="D97" s="1">
         <v>43252</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
-      </c>
-      <c r="E98" s="1">
+        <v>100</v>
+      </c>
+      <c r="D98" s="1">
         <v>43252</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
-      </c>
-      <c r="E99" s="1">
+        <v>101</v>
+      </c>
+      <c r="D99" s="1">
         <v>43252</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
-      </c>
-      <c r="E100" s="1">
+        <v>102</v>
+      </c>
+      <c r="D100" s="1">
         <v>43344</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
-      </c>
-      <c r="E101" s="1">
+        <v>103</v>
+      </c>
+      <c r="D101" s="1">
         <v>43252</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C102" t="s">
-        <v>106</v>
-      </c>
-      <c r="E102" s="1">
+        <v>104</v>
+      </c>
+      <c r="D102" s="1">
         <v>43252</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="1">
+        <v>43252</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="1">
-        <v>43252</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1"/>
+      <c r="E104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Node_List.xlsx
+++ b/Data/Node_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoller/Box Sync/ANCR/WAMV-Networks/multilayer_design_network_tool/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoller/Box/ANCR/WAMV-Networks/multilayer_design_network_tool/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39485B-0F4D-3542-A00A-4E84C704657F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14970A46-8C21-EA45-B283-3990ADF8A62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
+    <workbookView xWindow="53560" yWindow="460" windowWidth="23500" windowHeight="30380" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440458A-97D1-3A40-AB97-400D38B3B3DC}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2630,6 +2630,9 @@
       <c r="C104" t="s">
         <v>107</v>
       </c>
+      <c r="D104" s="1">
+        <v>43282</v>
+      </c>
       <c r="E104">
         <v>5</v>
       </c>
@@ -2644,6 +2647,9 @@
       <c r="C105" t="s">
         <v>108</v>
       </c>
+      <c r="D105" s="1">
+        <v>43282</v>
+      </c>
       <c r="E105">
         <v>5</v>
       </c>
@@ -2658,6 +2664,9 @@
       <c r="C106" t="s">
         <v>109</v>
       </c>
+      <c r="D106" s="1">
+        <v>43282</v>
+      </c>
       <c r="E106">
         <v>5</v>
       </c>
@@ -2672,6 +2681,9 @@
       <c r="C107" t="s">
         <v>21</v>
       </c>
+      <c r="D107" s="1">
+        <v>43282</v>
+      </c>
       <c r="E107">
         <v>5</v>
       </c>
@@ -2686,6 +2698,9 @@
       <c r="C108" t="s">
         <v>110</v>
       </c>
+      <c r="D108" s="1">
+        <v>43282</v>
+      </c>
       <c r="E108">
         <v>5</v>
       </c>
@@ -2700,6 +2715,9 @@
       <c r="C109" t="s">
         <v>111</v>
       </c>
+      <c r="D109" s="1">
+        <v>43282</v>
+      </c>
       <c r="E109">
         <v>5</v>
       </c>
@@ -2714,6 +2732,9 @@
       <c r="C110" t="s">
         <v>112</v>
       </c>
+      <c r="D110" s="1">
+        <v>43282</v>
+      </c>
       <c r="E110">
         <v>5</v>
       </c>
@@ -2728,6 +2749,9 @@
       <c r="C111" t="s">
         <v>113</v>
       </c>
+      <c r="D111" s="1">
+        <v>43282</v>
+      </c>
       <c r="E111">
         <v>5</v>
       </c>
@@ -2742,6 +2766,9 @@
       <c r="C112" t="s">
         <v>114</v>
       </c>
+      <c r="D112" s="1">
+        <v>43282</v>
+      </c>
       <c r="E112">
         <v>5</v>
       </c>
@@ -2756,6 +2783,9 @@
       <c r="C113" t="s">
         <v>115</v>
       </c>
+      <c r="D113" s="1">
+        <v>43282</v>
+      </c>
       <c r="E113">
         <v>5</v>
       </c>
@@ -2770,6 +2800,9 @@
       <c r="C114" t="s">
         <v>116</v>
       </c>
+      <c r="D114" s="1">
+        <v>43282</v>
+      </c>
       <c r="E114">
         <v>5</v>
       </c>
@@ -2784,6 +2817,9 @@
       <c r="C115" t="s">
         <v>117</v>
       </c>
+      <c r="D115" s="1">
+        <v>43282</v>
+      </c>
       <c r="E115">
         <v>5</v>
       </c>
@@ -2798,6 +2834,9 @@
       <c r="C116" t="s">
         <v>118</v>
       </c>
+      <c r="D116" s="1">
+        <v>43282</v>
+      </c>
       <c r="E116">
         <v>5</v>
       </c>
@@ -2812,6 +2851,9 @@
       <c r="C117" t="s">
         <v>119</v>
       </c>
+      <c r="D117" s="1">
+        <v>43282</v>
+      </c>
       <c r="E117">
         <v>5</v>
       </c>
@@ -2826,6 +2868,9 @@
       <c r="C118" t="s">
         <v>120</v>
       </c>
+      <c r="D118" s="1">
+        <v>43282</v>
+      </c>
       <c r="E118">
         <v>5</v>
       </c>
@@ -2840,6 +2885,9 @@
       <c r="C119" t="s">
         <v>121</v>
       </c>
+      <c r="D119" s="1">
+        <v>43282</v>
+      </c>
       <c r="E119">
         <v>5</v>
       </c>
@@ -2854,6 +2902,9 @@
       <c r="C120" t="s">
         <v>122</v>
       </c>
+      <c r="D120" s="1">
+        <v>43282</v>
+      </c>
       <c r="E120">
         <v>5</v>
       </c>
@@ -2867,6 +2918,9 @@
       </c>
       <c r="C121" t="s">
         <v>123</v>
+      </c>
+      <c r="D121" s="1">
+        <v>43282</v>
       </c>
       <c r="E121">
         <v>5</v>

--- a/Data/Node_List.xlsx
+++ b/Data/Node_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoller/Box/ANCR/WAMV-Networks/multilayer_design_network_tool/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14970A46-8C21-EA45-B283-3990ADF8A62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50982EC-B315-1B46-84B9-D87C75582CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53560" yWindow="460" windowWidth="23500" windowHeight="30380" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
+    <workbookView xWindow="38620" yWindow="460" windowWidth="28720" windowHeight="30380" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
   <si>
     <t>Function</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>StartDate</t>
+  </si>
+  <si>
+    <t>Importance</t>
   </si>
 </sst>
 </file>
@@ -450,9 +453,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,13 +773,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440458A-97D1-3A40-AB97-400D38B3B3DC}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,6 +802,9 @@
       <c r="E1" t="s">
         <v>124</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -809,6 +820,9 @@
         <v>43252</v>
       </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
         <v>10</v>
       </c>
     </row>
@@ -828,6 +842,9 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -845,6 +862,9 @@
       <c r="E4">
         <v>10</v>
       </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -862,6 +882,9 @@
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -879,6 +902,9 @@
       <c r="E6">
         <v>10</v>
       </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -896,6 +922,9 @@
       <c r="E7">
         <v>10</v>
       </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -913,6 +942,9 @@
       <c r="E8">
         <v>10</v>
       </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -930,6 +962,9 @@
       <c r="E9">
         <v>7.5</v>
       </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -947,6 +982,9 @@
       <c r="E10">
         <v>7.5</v>
       </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -964,6 +1002,9 @@
       <c r="E11">
         <v>7.5</v>
       </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -981,6 +1022,9 @@
       <c r="E12">
         <v>7.5</v>
       </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -998,7 +1042,9 @@
       <c r="E13">
         <v>7.5</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1016,7 +1062,9 @@
       <c r="E14">
         <v>7.5</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1034,7 +1082,9 @@
       <c r="E15">
         <v>7.5</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1052,7 +1102,9 @@
       <c r="E16">
         <v>7.5</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1070,7 +1122,9 @@
       <c r="E17">
         <v>7.5</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1088,7 +1142,9 @@
       <c r="E18">
         <v>7.5</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1106,7 +1162,9 @@
       <c r="E19">
         <v>7.5</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1124,7 +1182,9 @@
       <c r="E20">
         <v>7.5</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1142,7 +1202,9 @@
       <c r="E21">
         <v>7.5</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1160,7 +1222,9 @@
       <c r="E22">
         <v>7.5</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1178,7 +1242,9 @@
       <c r="E23">
         <v>7.5</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -1196,7 +1262,9 @@
       <c r="E24">
         <v>7.5</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -1214,7 +1282,9 @@
       <c r="E25">
         <v>7.5</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1232,7 +1302,9 @@
       <c r="E26">
         <v>7.5</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1250,7 +1322,9 @@
       <c r="E27">
         <v>7.5</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1268,7 +1342,9 @@
       <c r="E28">
         <v>7.5</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1286,7 +1362,9 @@
       <c r="E29">
         <v>7.5</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1304,7 +1382,9 @@
       <c r="E30">
         <v>7.5</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1322,7 +1402,9 @@
       <c r="E31">
         <v>7.5</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1340,7 +1422,9 @@
       <c r="E32">
         <v>7.5</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -1358,7 +1442,9 @@
       <c r="E33">
         <v>7.5</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -1376,7 +1462,9 @@
       <c r="E34">
         <v>7.5</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -1394,7 +1482,9 @@
       <c r="E35">
         <v>7.5</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -1412,7 +1502,9 @@
       <c r="E36">
         <v>7.5</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -1430,7 +1522,9 @@
       <c r="E37">
         <v>7.5</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -1448,7 +1542,9 @@
       <c r="E38">
         <v>7.5</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1466,7 +1562,9 @@
       <c r="E39">
         <v>7.5</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -1484,7 +1582,9 @@
       <c r="E40">
         <v>7.5</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1502,7 +1602,9 @@
       <c r="E41">
         <v>7.5</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -1520,7 +1622,9 @@
       <c r="E42">
         <v>7.5</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1538,7 +1642,9 @@
       <c r="E43">
         <v>7.5</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1556,7 +1662,9 @@
       <c r="E44">
         <v>7.5</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -1574,7 +1682,9 @@
       <c r="E45">
         <v>7.5</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -1592,7 +1702,9 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -1610,7 +1722,9 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -1628,7 +1742,9 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -1646,7 +1762,9 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -1664,7 +1782,9 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -1682,7 +1802,9 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -1700,7 +1822,9 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -1718,7 +1842,9 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -1736,7 +1862,9 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -1754,7 +1882,9 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -1772,7 +1902,9 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -1790,7 +1922,9 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -1808,7 +1942,9 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -1826,7 +1962,9 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -1844,7 +1982,9 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -1862,7 +2002,9 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -1880,7 +2022,9 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -1898,7 +2042,9 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -1916,7 +2062,9 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -1934,7 +2082,9 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -1952,7 +2102,9 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -1970,7 +2122,9 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -1988,7 +2142,9 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -2006,7 +2162,9 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -2024,7 +2182,9 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -2042,7 +2202,9 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -2060,7 +2222,9 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -2078,7 +2242,9 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -2096,7 +2262,9 @@
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74" s="1"/>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -2114,7 +2282,9 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -2132,7 +2302,9 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -2150,7 +2322,9 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -2168,7 +2342,9 @@
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -2186,7 +2362,9 @@
       <c r="E79">
         <v>2.5</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -2204,7 +2382,9 @@
       <c r="E80">
         <v>2.5</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -2222,7 +2402,9 @@
       <c r="E81">
         <v>2.5</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -2240,7 +2422,9 @@
       <c r="E82">
         <v>2.5</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
@@ -2258,7 +2442,9 @@
       <c r="E83">
         <v>2.5</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
@@ -2276,7 +2462,9 @@
       <c r="E84">
         <v>2.5</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -2294,7 +2482,9 @@
       <c r="E85">
         <v>2.5</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -2312,7 +2502,9 @@
       <c r="E86">
         <v>2.5</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -2330,7 +2522,9 @@
       <c r="E87">
         <v>2.5</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
@@ -2348,7 +2542,9 @@
       <c r="E88">
         <v>2.5</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
@@ -2366,7 +2562,9 @@
       <c r="E89">
         <v>2.5</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -2384,7 +2582,9 @@
       <c r="E90">
         <v>2.5</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -2402,7 +2602,9 @@
       <c r="E91">
         <v>2.5</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -2420,7 +2622,9 @@
       <c r="E92">
         <v>2.5</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -2438,7 +2642,9 @@
       <c r="E93">
         <v>2.5</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
@@ -2456,7 +2662,9 @@
       <c r="E94">
         <v>2.5</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
@@ -2474,7 +2682,9 @@
       <c r="E95">
         <v>2.5</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
@@ -2492,7 +2702,9 @@
       <c r="E96">
         <v>10</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
@@ -2510,7 +2722,9 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -2528,7 +2742,9 @@
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -2546,7 +2762,9 @@
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
@@ -2564,7 +2782,9 @@
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
@@ -2582,7 +2802,9 @@
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
@@ -2600,7 +2822,9 @@
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102" s="1"/>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
@@ -2618,7 +2842,9 @@
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
@@ -2636,6 +2862,9 @@
       <c r="E104">
         <v>5</v>
       </c>
+      <c r="F104" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
@@ -2653,6 +2882,9 @@
       <c r="E105">
         <v>5</v>
       </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
@@ -2670,6 +2902,9 @@
       <c r="E106">
         <v>5</v>
       </c>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
@@ -2687,6 +2922,9 @@
       <c r="E107">
         <v>5</v>
       </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
@@ -2704,6 +2942,9 @@
       <c r="E108">
         <v>5</v>
       </c>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
@@ -2721,6 +2962,9 @@
       <c r="E109">
         <v>5</v>
       </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
@@ -2738,6 +2982,9 @@
       <c r="E110">
         <v>5</v>
       </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
@@ -2755,6 +3002,9 @@
       <c r="E111">
         <v>5</v>
       </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
@@ -2772,8 +3022,11 @@
       <c r="E112">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2789,8 +3042,11 @@
       <c r="E113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2806,8 +3062,11 @@
       <c r="E114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2823,8 +3082,11 @@
       <c r="E115">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2840,8 +3102,11 @@
       <c r="E116">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2857,8 +3122,11 @@
       <c r="E117">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2874,8 +3142,11 @@
       <c r="E118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2891,8 +3162,11 @@
       <c r="E119">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2908,8 +3182,11 @@
       <c r="E120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2924,6 +3201,9 @@
       </c>
       <c r="E121">
         <v>5</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Node_List.xlsx
+++ b/Data/Node_List.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoller/Box/ANCR/WAMV-Networks/multilayer_design_network_tool/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50982EC-B315-1B46-84B9-D87C75582CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58865051-2F88-F34A-BC89-E74EADF9E0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38620" yWindow="460" windowWidth="28720" windowHeight="30380" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
+    <workbookView xWindow="1480" yWindow="2500" windowWidth="28720" windowHeight="14400" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nodes" sheetId="1" r:id="rId1"/>
-    <sheet name="Lookup" sheetId="2" r:id="rId2"/>
+    <sheet name="Node_List" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -773,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440458A-97D1-3A40-AB97-400D38B3B3DC}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3210,18 +3209,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4DE0F0-F6DD-964E-911D-B2EF69A8D7FA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/Node_List.xlsx
+++ b/Data/Node_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoller/Box/ANCR/WAMV-Networks/multilayer_design_network_tool/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58865051-2F88-F34A-BC89-E74EADF9E0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C033D40A-FF0B-0140-9498-345A69F03726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="2500" windowWidth="28720" windowHeight="14400" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
+    <workbookView xWindow="16200" yWindow="2820" windowWidth="28720" windowHeight="14400" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Node_List" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -454,8 +454,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,16 +773,16 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,13 +795,13 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -815,13 +815,13 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>43252</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>10</v>
       </c>
     </row>
@@ -835,13 +835,13 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>43331</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>7</v>
       </c>
     </row>
@@ -855,13 +855,13 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>43151</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -875,13 +875,13 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>43392</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
     </row>
@@ -895,13 +895,13 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>43423</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
     </row>
@@ -915,13 +915,13 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>43423</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
     </row>
@@ -935,13 +935,13 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>43270</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>10</v>
       </c>
     </row>
@@ -955,13 +955,13 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>43270</v>
       </c>
       <c r="E9">
         <v>7.5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>10</v>
       </c>
     </row>
@@ -975,13 +975,13 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>43270</v>
       </c>
       <c r="E10">
         <v>7.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>10</v>
       </c>
     </row>
@@ -995,13 +995,13 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>43239</v>
       </c>
       <c r="E11">
         <v>7.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1015,13 +1015,13 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>43239</v>
       </c>
       <c r="E12">
         <v>7.5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1035,13 +1035,13 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>43300</v>
       </c>
       <c r="E13">
         <v>7.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1055,13 +1055,13 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>43239</v>
       </c>
       <c r="E14">
         <v>7.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1075,13 +1075,13 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>43239</v>
       </c>
       <c r="E15">
         <v>7.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1095,13 +1095,13 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>43270</v>
       </c>
       <c r="E16">
         <v>7.5</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1115,13 +1115,13 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>43270</v>
       </c>
       <c r="E17">
         <v>7.5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1135,13 +1135,13 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>43239</v>
       </c>
       <c r="E18">
         <v>7.5</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1155,13 +1155,13 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>43239</v>
       </c>
       <c r="E19">
         <v>7.5</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1175,13 +1175,13 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>43331</v>
       </c>
       <c r="E20">
         <v>7.5</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1195,13 +1195,13 @@
       <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>43392</v>
       </c>
       <c r="E21">
         <v>7.5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1215,13 +1215,13 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>43331</v>
       </c>
       <c r="E22">
         <v>7.5</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1235,13 +1235,13 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>43331</v>
       </c>
       <c r="E23">
         <v>7.5</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1255,13 +1255,13 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>43331</v>
       </c>
       <c r="E24">
         <v>7.5</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1275,13 +1275,13 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>43300</v>
       </c>
       <c r="E25">
         <v>7.5</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1295,13 +1295,13 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>43300</v>
       </c>
       <c r="E26">
         <v>7.5</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1315,13 +1315,13 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>43300</v>
       </c>
       <c r="E27">
         <v>7.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1335,13 +1335,13 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>43300</v>
       </c>
       <c r="E28">
         <v>7.5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1355,13 +1355,13 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>43392</v>
       </c>
       <c r="E29">
         <v>7.5</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1375,13 +1375,13 @@
       <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>43423</v>
       </c>
       <c r="E30">
         <v>7.5</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1395,13 +1395,13 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>43362</v>
       </c>
       <c r="E31">
         <v>7.5</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1415,13 +1415,13 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>43331</v>
       </c>
       <c r="E32">
         <v>7.5</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1435,13 +1435,13 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>43392</v>
       </c>
       <c r="E33">
         <v>7.5</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1455,13 +1455,13 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>43392</v>
       </c>
       <c r="E34">
         <v>7.5</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1475,13 +1475,13 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>43300</v>
       </c>
       <c r="E35">
         <v>7.5</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1495,13 +1495,13 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>43423</v>
       </c>
       <c r="E36">
         <v>7.5</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1515,13 +1515,13 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>43423</v>
       </c>
       <c r="E37">
         <v>7.5</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1535,13 +1535,13 @@
       <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>43423</v>
       </c>
       <c r="E38">
         <v>7.5</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1555,13 +1555,13 @@
       <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>43362</v>
       </c>
       <c r="E39">
         <v>7.5</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1575,13 +1575,13 @@
       <c r="C40" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>43392</v>
       </c>
       <c r="E40">
         <v>7.5</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1595,13 +1595,13 @@
       <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>43270</v>
       </c>
       <c r="E41">
         <v>7.5</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1615,13 +1615,13 @@
       <c r="C42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>43270</v>
       </c>
       <c r="E42">
         <v>7.5</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1635,13 +1635,13 @@
       <c r="C43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>43270</v>
       </c>
       <c r="E43">
         <v>7.5</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1655,13 +1655,13 @@
       <c r="C44" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>43270</v>
       </c>
       <c r="E44">
         <v>7.5</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1675,13 +1675,13 @@
       <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>43270</v>
       </c>
       <c r="E45">
         <v>7.5</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1695,13 +1695,13 @@
       <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>43191</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1715,13 +1715,13 @@
       <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>43191</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1735,13 +1735,13 @@
       <c r="C48" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>43221</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1755,13 +1755,13 @@
       <c r="C49" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>43435</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1775,13 +1775,13 @@
       <c r="C50" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>43221</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1795,13 +1795,13 @@
       <c r="C51" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>43435</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1815,13 +1815,13 @@
       <c r="C52" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>43252</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1835,13 +1835,13 @@
       <c r="C53" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>43252</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1855,13 +1855,13 @@
       <c r="C54" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>43344</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1875,13 +1875,13 @@
       <c r="C55" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>43344</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1895,13 +1895,13 @@
       <c r="C56" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>43252</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1915,13 +1915,13 @@
       <c r="C57" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>43252</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1935,13 +1935,13 @@
       <c r="C58" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>43282</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1955,13 +1955,13 @@
       <c r="C59" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>43282</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1975,13 +1975,13 @@
       <c r="C60" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>43282</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1995,13 +1995,13 @@
       <c r="C61" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>43282</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2015,13 +2015,13 @@
       <c r="C62" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>43282</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2035,13 +2035,13 @@
       <c r="C63" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>43282</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2055,13 +2055,13 @@
       <c r="C64" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>43344</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2075,13 +2075,13 @@
       <c r="C65" t="s">
         <v>66</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>43252</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2095,13 +2095,13 @@
       <c r="C66" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>43252</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2115,13 +2115,13 @@
       <c r="C67" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>43252</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2135,13 +2135,13 @@
       <c r="C68" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>43252</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2155,13 +2155,13 @@
       <c r="C69" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>43252</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2175,13 +2175,13 @@
       <c r="C70" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>43282</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2195,13 +2195,13 @@
       <c r="C71" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>43282</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2215,13 +2215,13 @@
       <c r="C72" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>43221</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2235,13 +2235,13 @@
       <c r="C73" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>43221</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2255,13 +2255,13 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>43221</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2275,13 +2275,13 @@
       <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>43221</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2295,13 +2295,13 @@
       <c r="C76" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>43221</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2315,13 +2315,13 @@
       <c r="C77" t="s">
         <v>78</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>43221</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2335,13 +2335,13 @@
       <c r="C78" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>43405</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2355,13 +2355,13 @@
       <c r="C79" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>43209</v>
       </c>
       <c r="E79">
         <v>2.5</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2375,13 +2375,13 @@
       <c r="C80" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>43300</v>
       </c>
       <c r="E80">
         <v>2.5</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2395,13 +2395,13 @@
       <c r="C81" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>43300</v>
       </c>
       <c r="E81">
         <v>2.5</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2415,13 +2415,13 @@
       <c r="C82" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>43270</v>
       </c>
       <c r="E82">
         <v>2.5</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2435,13 +2435,13 @@
       <c r="C83" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>43300</v>
       </c>
       <c r="E83">
         <v>2.5</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2455,13 +2455,13 @@
       <c r="C84" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>43362</v>
       </c>
       <c r="E84">
         <v>2.5</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2475,13 +2475,13 @@
       <c r="C85" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>43300</v>
       </c>
       <c r="E85">
         <v>2.5</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2495,13 +2495,13 @@
       <c r="C86" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>43331</v>
       </c>
       <c r="E86">
         <v>2.5</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2515,13 +2515,13 @@
       <c r="C87" t="s">
         <v>90</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>43331</v>
       </c>
       <c r="E87">
         <v>2.5</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2535,13 +2535,13 @@
       <c r="C88" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>43300</v>
       </c>
       <c r="E88">
         <v>2.5</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2555,13 +2555,13 @@
       <c r="C89" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>43362</v>
       </c>
       <c r="E89">
         <v>2.5</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2575,13 +2575,13 @@
       <c r="C90" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>43270</v>
       </c>
       <c r="E90">
         <v>2.5</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2595,13 +2595,13 @@
       <c r="C91" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>43300</v>
       </c>
       <c r="E91">
         <v>2.5</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2615,13 +2615,13 @@
       <c r="C92" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>43300</v>
       </c>
       <c r="E92">
         <v>2.5</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2635,13 +2635,13 @@
       <c r="C93" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>43239</v>
       </c>
       <c r="E93">
         <v>2.5</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2655,13 +2655,13 @@
       <c r="C94" t="s">
         <v>95</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>43239</v>
       </c>
       <c r="E94">
         <v>2.5</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2675,13 +2675,13 @@
       <c r="C95" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>43423</v>
       </c>
       <c r="E95">
         <v>2.5</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2695,13 +2695,13 @@
       <c r="C96" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>43435</v>
       </c>
       <c r="E96">
         <v>10</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2715,13 +2715,13 @@
       <c r="C97" t="s">
         <v>99</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>43252</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2735,13 +2735,13 @@
       <c r="C98" t="s">
         <v>100</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>43252</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2755,13 +2755,13 @@
       <c r="C99" t="s">
         <v>101</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>43252</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2775,13 +2775,13 @@
       <c r="C100" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>43344</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2795,13 +2795,13 @@
       <c r="C101" t="s">
         <v>103</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>43252</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2815,13 +2815,13 @@
       <c r="C102" t="s">
         <v>104</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>43252</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2835,13 +2835,13 @@
       <c r="C103" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>43252</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2855,13 +2855,13 @@
       <c r="C104" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>43282</v>
       </c>
       <c r="E104">
         <v>5</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2875,13 +2875,13 @@
       <c r="C105" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>43282</v>
       </c>
       <c r="E105">
         <v>5</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2895,13 +2895,13 @@
       <c r="C106" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>43282</v>
       </c>
       <c r="E106">
         <v>5</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2915,13 +2915,13 @@
       <c r="C107" t="s">
         <v>21</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>43282</v>
       </c>
       <c r="E107">
         <v>5</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2935,13 +2935,13 @@
       <c r="C108" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>43282</v>
       </c>
       <c r="E108">
         <v>5</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2955,13 +2955,13 @@
       <c r="C109" t="s">
         <v>111</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>43282</v>
       </c>
       <c r="E109">
         <v>5</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2975,13 +2975,13 @@
       <c r="C110" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>43282</v>
       </c>
       <c r="E110">
         <v>5</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2995,13 +2995,13 @@
       <c r="C111" t="s">
         <v>113</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>43282</v>
       </c>
       <c r="E111">
         <v>5</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3015,13 +3015,13 @@
       <c r="C112" t="s">
         <v>114</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>43282</v>
       </c>
       <c r="E112">
         <v>5</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3035,13 +3035,13 @@
       <c r="C113" t="s">
         <v>115</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>43282</v>
       </c>
       <c r="E113">
         <v>5</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3055,13 +3055,13 @@
       <c r="C114" t="s">
         <v>116</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <v>43282</v>
       </c>
       <c r="E114">
         <v>5</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3075,13 +3075,13 @@
       <c r="C115" t="s">
         <v>117</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>43282</v>
       </c>
       <c r="E115">
         <v>5</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3095,13 +3095,13 @@
       <c r="C116" t="s">
         <v>118</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>43282</v>
       </c>
       <c r="E116">
         <v>5</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3115,13 +3115,13 @@
       <c r="C117" t="s">
         <v>119</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="2">
         <v>43282</v>
       </c>
       <c r="E117">
         <v>5</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3135,13 +3135,13 @@
       <c r="C118" t="s">
         <v>120</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="2">
         <v>43282</v>
       </c>
       <c r="E118">
         <v>5</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3155,13 +3155,13 @@
       <c r="C119" t="s">
         <v>121</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>43282</v>
       </c>
       <c r="E119">
         <v>5</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3175,13 +3175,13 @@
       <c r="C120" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="2">
         <v>43282</v>
       </c>
       <c r="E120">
         <v>5</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3195,13 +3195,13 @@
       <c r="C121" t="s">
         <v>123</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="2">
         <v>43282</v>
       </c>
       <c r="E121">
         <v>5</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Data/Node_List.xlsx
+++ b/Data/Node_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcoller/Box/ANCR/WAMV-Networks/multilayer_design_network_tool/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C033D40A-FF0B-0140-9498-345A69F03726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF13253-7033-8346-A253-38CC49A181E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="2820" windowWidth="28720" windowHeight="14400" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
+    <workbookView xWindow="38120" yWindow="2040" windowWidth="38860" windowHeight="26400" xr2:uid="{320C58FC-2FC4-CE4C-8486-5CFAF2D324D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Node_List" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="255">
   <si>
     <t>Function</t>
   </si>
@@ -414,6 +414,390 @@
   </si>
   <si>
     <t>Importance</t>
+  </si>
+  <si>
+    <t>Angle Functions</t>
+  </si>
+  <si>
+    <t>Drive Square</t>
+  </si>
+  <si>
+    <t>Mbot Channels</t>
+  </si>
+  <si>
+    <t>Motion Controller</t>
+  </si>
+  <si>
+    <t>Oled Example</t>
+  </si>
+  <si>
+    <t>rplidar driver</t>
+  </si>
+  <si>
+    <t>wifi Reader</t>
+  </si>
+  <si>
+    <t>Astar Test</t>
+  </si>
+  <si>
+    <t>Astar</t>
+  </si>
+  <si>
+    <t>Exploration Main</t>
+  </si>
+  <si>
+    <t>Explroation</t>
+  </si>
+  <si>
+    <t>Obstacle Distance Grid Test</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Encode Bytes</t>
+  </si>
+  <si>
+    <t>Getopt</t>
+  </si>
+  <si>
+    <t>Grid Utils</t>
+  </si>
+  <si>
+    <t>Interpolation</t>
+  </si>
+  <si>
+    <t>IO Util</t>
+  </si>
+  <si>
+    <t>IOutils</t>
+  </si>
+  <si>
+    <t>LCM Config</t>
+  </si>
+  <si>
+    <t>Param Widget</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Pose Trace</t>
+  </si>
+  <si>
+    <t>RPlidar CMD</t>
+  </si>
+  <si>
+    <t>RPlidar Protocol</t>
+  </si>
+  <si>
+    <t>RPlidar</t>
+  </si>
+  <si>
+    <t>RPtypes</t>
+  </si>
+  <si>
+    <t>Serial Util</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Ssocket</t>
+  </si>
+  <si>
+    <t>String Util</t>
+  </si>
+  <si>
+    <t>Task Thread</t>
+  </si>
+  <si>
+    <t>Time Util</t>
+  </si>
+  <si>
+    <t>Timeprofile</t>
+  </si>
+  <si>
+    <t>Timespec</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Timesync</t>
+  </si>
+  <si>
+    <t>URL Parser</t>
+  </si>
+  <si>
+    <t>Varray</t>
+  </si>
+  <si>
+    <t>Vhash</t>
+  </si>
+  <si>
+    <t>Zarray</t>
+  </si>
+  <si>
+    <t>Zhash</t>
+  </si>
+  <si>
+    <t>Zset</t>
+  </si>
+  <si>
+    <t>stdio</t>
+  </si>
+  <si>
+    <t>stdint</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>Robot Path t</t>
+  </si>
+  <si>
+    <t>unistd</t>
+  </si>
+  <si>
+    <t>Mbot Motor Command t</t>
+  </si>
+  <si>
+    <t>Odometry t</t>
+  </si>
+  <si>
+    <t>Pose xyt t</t>
+  </si>
+  <si>
+    <t>Timestamp t</t>
+  </si>
+  <si>
+    <t>Message Received t</t>
+  </si>
+  <si>
+    <t>SLAM Channels</t>
+  </si>
+  <si>
+    <t>LCM CPP</t>
+  </si>
+  <si>
+    <t>iostream</t>
+  </si>
+  <si>
+    <t>cassert</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>Oled Message t</t>
+  </si>
+  <si>
+    <t>ctime</t>
+  </si>
+  <si>
+    <t>sstream</t>
+  </si>
+  <si>
+    <t>iomanip</t>
+  </si>
+  <si>
+    <t>inttypes</t>
+  </si>
+  <si>
+    <t>stdlib</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Lidar t</t>
+  </si>
+  <si>
+    <t>prlidar</t>
+  </si>
+  <si>
+    <t>LCM</t>
+  </si>
+  <si>
+    <t>Wifi Data t</t>
+  </si>
+  <si>
+    <t>accumulators</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>cmath</t>
+  </si>
+  <si>
+    <t>fstream</t>
+  </si>
+  <si>
+    <t>iterator</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>exploration</t>
+  </si>
+  <si>
+    <t>atomic</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>planning channels</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>exploration status t</t>
+  </si>
+  <si>
+    <t>mutex</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>limits</t>
+  </si>
+  <si>
+    <t>stdarg</t>
+  </si>
+  <si>
+    <t>ctype</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>errno</t>
+  </si>
+  <si>
+    <t>ioctl</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>inet</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>glib</t>
+  </si>
+  <si>
+    <t>glib object</t>
+  </si>
+  <si>
+    <t>gtk</t>
+  </si>
+  <si>
+    <t>gtksignal</t>
+  </si>
+  <si>
+    <t>cstdint</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>fcntl</t>
+  </si>
+  <si>
+    <t>termios</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>netdb</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>regex</t>
+  </si>
+  <si>
+    <t>stdbool</t>
+  </si>
+  <si>
+    <t>pthread</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>stddef</t>
+  </si>
+  <si>
+    <t>particle t</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>occupancy grid t</t>
+  </si>
+  <si>
+    <t>particles t</t>
   </si>
 </sst>
 </file>
@@ -421,12 +805,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,10 +843,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440458A-97D1-3A40-AB97-400D38B3B3DC}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3205,6 +3597,2566 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="2">
+        <v>43221</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D127" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" t="s">
+        <v>134</v>
+      </c>
+      <c r="D129" s="2">
+        <v>43344</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>106</v>
+      </c>
+      <c r="C130" t="s">
+        <v>135</v>
+      </c>
+      <c r="D130" s="2">
+        <v>43344</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>106</v>
+      </c>
+      <c r="C138" t="s">
+        <v>143</v>
+      </c>
+      <c r="D138" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" t="s">
+        <v>144</v>
+      </c>
+      <c r="D139" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>106</v>
+      </c>
+      <c r="C141" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>106</v>
+      </c>
+      <c r="C142" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>106</v>
+      </c>
+      <c r="C143" t="s">
+        <v>148</v>
+      </c>
+      <c r="D143" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>106</v>
+      </c>
+      <c r="C144" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>106</v>
+      </c>
+      <c r="C145" t="s">
+        <v>150</v>
+      </c>
+      <c r="D145" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" s="2">
+        <v>43344</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148" t="s">
+        <v>153</v>
+      </c>
+      <c r="D148" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>106</v>
+      </c>
+      <c r="C149" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>106</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" s="2">
+        <v>43344</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+      <c r="C152" t="s">
+        <v>157</v>
+      </c>
+      <c r="D152" s="2">
+        <v>43344</v>
+      </c>
+      <c r="E152">
+        <v>5</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>106</v>
+      </c>
+      <c r="C153" t="s">
+        <v>158</v>
+      </c>
+      <c r="D153" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C154" t="s">
+        <v>159</v>
+      </c>
+      <c r="D154" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>106</v>
+      </c>
+      <c r="C155" t="s">
+        <v>160</v>
+      </c>
+      <c r="D155" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>106</v>
+      </c>
+      <c r="C156" t="s">
+        <v>161</v>
+      </c>
+      <c r="D156" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>106</v>
+      </c>
+      <c r="C157" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>106</v>
+      </c>
+      <c r="C158" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>106</v>
+      </c>
+      <c r="C160" t="s">
+        <v>165</v>
+      </c>
+      <c r="D160" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>106</v>
+      </c>
+      <c r="C161" t="s">
+        <v>166</v>
+      </c>
+      <c r="D161" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162" t="s">
+        <v>167</v>
+      </c>
+      <c r="D162" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>106</v>
+      </c>
+      <c r="C163" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>106</v>
+      </c>
+      <c r="C164" t="s">
+        <v>169</v>
+      </c>
+      <c r="D164" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>106</v>
+      </c>
+      <c r="C165" t="s">
+        <v>170</v>
+      </c>
+      <c r="D165" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>106</v>
+      </c>
+      <c r="C166" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>106</v>
+      </c>
+      <c r="C167" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>106</v>
+      </c>
+      <c r="C168" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>106</v>
+      </c>
+      <c r="C169" t="s">
+        <v>174</v>
+      </c>
+      <c r="D169" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>106</v>
+      </c>
+      <c r="C170" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>106</v>
+      </c>
+      <c r="C172" t="s">
+        <v>177</v>
+      </c>
+      <c r="D172" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>106</v>
+      </c>
+      <c r="C173" t="s">
+        <v>178</v>
+      </c>
+      <c r="D173" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>106</v>
+      </c>
+      <c r="C174" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>106</v>
+      </c>
+      <c r="C175" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>106</v>
+      </c>
+      <c r="C176" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>106</v>
+      </c>
+      <c r="C177" t="s">
+        <v>182</v>
+      </c>
+      <c r="D177" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>106</v>
+      </c>
+      <c r="C178" t="s">
+        <v>183</v>
+      </c>
+      <c r="D178" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>106</v>
+      </c>
+      <c r="C179" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>106</v>
+      </c>
+      <c r="C180" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E180">
+        <v>5</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>106</v>
+      </c>
+      <c r="C181" t="s">
+        <v>186</v>
+      </c>
+      <c r="D181" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E181">
+        <v>5</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>106</v>
+      </c>
+      <c r="C182" t="s">
+        <v>187</v>
+      </c>
+      <c r="D182" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E182">
+        <v>5</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>106</v>
+      </c>
+      <c r="C183" t="s">
+        <v>188</v>
+      </c>
+      <c r="D183" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>106</v>
+      </c>
+      <c r="C184" t="s">
+        <v>189</v>
+      </c>
+      <c r="D184" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E184">
+        <v>5</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>106</v>
+      </c>
+      <c r="C185" t="s">
+        <v>190</v>
+      </c>
+      <c r="D185" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>106</v>
+      </c>
+      <c r="C186" t="s">
+        <v>191</v>
+      </c>
+      <c r="D186" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E186">
+        <v>5</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>106</v>
+      </c>
+      <c r="C187" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>106</v>
+      </c>
+      <c r="C188" t="s">
+        <v>193</v>
+      </c>
+      <c r="D188" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E188">
+        <v>5</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>106</v>
+      </c>
+      <c r="C189" t="s">
+        <v>194</v>
+      </c>
+      <c r="D189" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>106</v>
+      </c>
+      <c r="C190" t="s">
+        <v>195</v>
+      </c>
+      <c r="D190" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>106</v>
+      </c>
+      <c r="C191" t="s">
+        <v>196</v>
+      </c>
+      <c r="D191" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E191">
+        <v>5</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>106</v>
+      </c>
+      <c r="C192" t="s">
+        <v>197</v>
+      </c>
+      <c r="D192" s="2">
+        <v>40909</v>
+      </c>
+      <c r="E192">
+        <v>5</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>106</v>
+      </c>
+      <c r="C193" t="s">
+        <v>198</v>
+      </c>
+      <c r="D193" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E193">
+        <v>5</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>106</v>
+      </c>
+      <c r="C194" t="s">
+        <v>199</v>
+      </c>
+      <c r="D194" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>106</v>
+      </c>
+      <c r="C195" t="s">
+        <v>200</v>
+      </c>
+      <c r="D195" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>106</v>
+      </c>
+      <c r="C196" t="s">
+        <v>201</v>
+      </c>
+      <c r="D196" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E196">
+        <v>5</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>106</v>
+      </c>
+      <c r="C197" t="s">
+        <v>202</v>
+      </c>
+      <c r="D197" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>106</v>
+      </c>
+      <c r="C198" t="s">
+        <v>203</v>
+      </c>
+      <c r="D198" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" t="s">
+        <v>204</v>
+      </c>
+      <c r="D199" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E199">
+        <v>5</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>106</v>
+      </c>
+      <c r="C200" t="s">
+        <v>205</v>
+      </c>
+      <c r="D200" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E200">
+        <v>5</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>106</v>
+      </c>
+      <c r="C201" t="s">
+        <v>206</v>
+      </c>
+      <c r="D201" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>106</v>
+      </c>
+      <c r="C202" t="s">
+        <v>207</v>
+      </c>
+      <c r="D202" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E202">
+        <v>5</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>106</v>
+      </c>
+      <c r="C203" t="s">
+        <v>208</v>
+      </c>
+      <c r="D203" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>106</v>
+      </c>
+      <c r="C204" t="s">
+        <v>209</v>
+      </c>
+      <c r="D204" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>106</v>
+      </c>
+      <c r="C205" t="s">
+        <v>210</v>
+      </c>
+      <c r="D205" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>106</v>
+      </c>
+      <c r="C206" t="s">
+        <v>211</v>
+      </c>
+      <c r="D206" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C207" t="s">
+        <v>212</v>
+      </c>
+      <c r="D207" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>106</v>
+      </c>
+      <c r="C208" t="s">
+        <v>213</v>
+      </c>
+      <c r="D208" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" t="s">
+        <v>214</v>
+      </c>
+      <c r="D209" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E209">
+        <v>5</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>106</v>
+      </c>
+      <c r="C210" t="s">
+        <v>215</v>
+      </c>
+      <c r="D210" s="2">
+        <v>43374</v>
+      </c>
+      <c r="E210">
+        <v>5</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>106</v>
+      </c>
+      <c r="C211" t="s">
+        <v>216</v>
+      </c>
+      <c r="D211" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>106</v>
+      </c>
+      <c r="C212" t="s">
+        <v>217</v>
+      </c>
+      <c r="D212" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>106</v>
+      </c>
+      <c r="C213" t="s">
+        <v>218</v>
+      </c>
+      <c r="D213" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>106</v>
+      </c>
+      <c r="C214" t="s">
+        <v>219</v>
+      </c>
+      <c r="D214" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E214">
+        <v>5</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>106</v>
+      </c>
+      <c r="C215" t="s">
+        <v>220</v>
+      </c>
+      <c r="D215" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E215">
+        <v>5</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>106</v>
+      </c>
+      <c r="C216" t="s">
+        <v>221</v>
+      </c>
+      <c r="D216" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>106</v>
+      </c>
+      <c r="C217" t="s">
+        <v>222</v>
+      </c>
+      <c r="D217" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>106</v>
+      </c>
+      <c r="C218" t="s">
+        <v>223</v>
+      </c>
+      <c r="D218" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E218">
+        <v>5</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>106</v>
+      </c>
+      <c r="C219" t="s">
+        <v>224</v>
+      </c>
+      <c r="D219" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>106</v>
+      </c>
+      <c r="C220" t="s">
+        <v>225</v>
+      </c>
+      <c r="D220" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>106</v>
+      </c>
+      <c r="C221" t="s">
+        <v>226</v>
+      </c>
+      <c r="D221" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>106</v>
+      </c>
+      <c r="C222" t="s">
+        <v>227</v>
+      </c>
+      <c r="D222" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E222">
+        <v>5</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>106</v>
+      </c>
+      <c r="C223" t="s">
+        <v>228</v>
+      </c>
+      <c r="D223" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>106</v>
+      </c>
+      <c r="C224" t="s">
+        <v>229</v>
+      </c>
+      <c r="D224" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E224">
+        <v>5</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>106</v>
+      </c>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+      <c r="D225" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>106</v>
+      </c>
+      <c r="C226" t="s">
+        <v>231</v>
+      </c>
+      <c r="D226" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>106</v>
+      </c>
+      <c r="C227" t="s">
+        <v>232</v>
+      </c>
+      <c r="D227" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>106</v>
+      </c>
+      <c r="C228" t="s">
+        <v>233</v>
+      </c>
+      <c r="D228" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>106</v>
+      </c>
+      <c r="C229" t="s">
+        <v>234</v>
+      </c>
+      <c r="D229" s="2">
+        <v>36892</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>106</v>
+      </c>
+      <c r="C230" t="s">
+        <v>235</v>
+      </c>
+      <c r="D230" s="2">
+        <v>36893</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>106</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D231" s="2">
+        <v>36894</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>106</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D232" s="2">
+        <v>36895</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>106</v>
+      </c>
+      <c r="C233" t="s">
+        <v>238</v>
+      </c>
+      <c r="D233" s="2">
+        <v>36896</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>106</v>
+      </c>
+      <c r="C234" t="s">
+        <v>239</v>
+      </c>
+      <c r="D234" s="2">
+        <v>36897</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>106</v>
+      </c>
+      <c r="C235" t="s">
+        <v>240</v>
+      </c>
+      <c r="D235" s="2">
+        <v>36898</v>
+      </c>
+      <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>106</v>
+      </c>
+      <c r="C236" t="s">
+        <v>241</v>
+      </c>
+      <c r="D236" s="2">
+        <v>36899</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>106</v>
+      </c>
+      <c r="C237" t="s">
+        <v>242</v>
+      </c>
+      <c r="D237" s="2">
+        <v>36900</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>106</v>
+      </c>
+      <c r="C238" t="s">
+        <v>243</v>
+      </c>
+      <c r="D238" s="2">
+        <v>36901</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>106</v>
+      </c>
+      <c r="C239" t="s">
+        <v>244</v>
+      </c>
+      <c r="D239" s="2">
+        <v>36902</v>
+      </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>106</v>
+      </c>
+      <c r="C240" t="s">
+        <v>245</v>
+      </c>
+      <c r="D240" s="2">
+        <v>36903</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>106</v>
+      </c>
+      <c r="C241" t="s">
+        <v>246</v>
+      </c>
+      <c r="D241" s="2">
+        <v>36904</v>
+      </c>
+      <c r="E241">
+        <v>5</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>106</v>
+      </c>
+      <c r="C242" t="s">
+        <v>247</v>
+      </c>
+      <c r="D242" s="2">
+        <v>36905</v>
+      </c>
+      <c r="E242">
+        <v>5</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>106</v>
+      </c>
+      <c r="C243" t="s">
+        <v>248</v>
+      </c>
+      <c r="D243" s="2">
+        <v>36906</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>106</v>
+      </c>
+      <c r="C244" t="s">
+        <v>249</v>
+      </c>
+      <c r="D244" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>106</v>
+      </c>
+      <c r="C245" t="s">
+        <v>250</v>
+      </c>
+      <c r="D245" s="2">
+        <v>36908</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>106</v>
+      </c>
+      <c r="C246" t="s">
+        <v>251</v>
+      </c>
+      <c r="D246" s="2">
+        <v>36909</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>106</v>
+      </c>
+      <c r="C247" t="s">
+        <v>252</v>
+      </c>
+      <c r="D247" s="2">
+        <v>36910</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>106</v>
+      </c>
+      <c r="C248" t="s">
+        <v>253</v>
+      </c>
+      <c r="D248" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>106</v>
+      </c>
+      <c r="C249" t="s">
+        <v>254</v>
+      </c>
+      <c r="D249" s="2">
+        <v>43282</v>
+      </c>
+      <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
